--- a/measures/3 translation and stimuli selection/2 sites/Balas & Sarzynska/translation/Polish/awareness_2a.xlsx
+++ b/measures/3 translation and stimuli selection/2 sites/Balas & Sarzynska/translation/Polish/awareness_2a.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmoranyo\Documents\LipLab\projects\RRR_fazio&amp;olson2001\replication_procedure\labs\BALAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="2320" windowWidth="26820" windowHeight="17040"/>
+    <workbookView xWindow="4065" yWindow="2325" windowWidth="26820" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,23 +29,22 @@
     <t>awareness_2a_question_text</t>
   </si>
   <si>
-    <t xml:space="preserve">W przypadku niektórych uczestników badania, podczas pierwszego zadania, była postać, która zawsze pojawiała się z pozytywnymi obrazkami i słowami i jedna, która zawsze pojawiała się z negatywnymi obrazkami i słowami. Czy tak było w Twoim przypadku?
-1= Nie, nie zauważyłem by miało to miejsce w moim zadaniu.
-2= Tak, to miało miejsce w moim zadaniu.
-Kliknij w linię, potem potwierdź swój wybór klikając w szary przycisk poniżej. </t>
+    <t>W przypadku niektórych uczestników badania, podczas pierwszego zadania, była postać, która zawsze pojawiała się z pozytywnymi obrazkami i słowami i jedna, która zawsze pojawiała się z negatywnymi obrazkami i słowami. Czy tak było w Twoim przypadku?
+1 = Nie, nie zauważyłem by miało to miejsce w moim zadaniu
+2 = Tak, to miało miejsce w moim zadaniu
+Kliknij w linię, potem potwierdź swój wybór klikając w szary przycisk poniżej.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,24 +172,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -498,7 +484,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -541,8 +527,6 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -552,7 +536,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -581,13 +565,11 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -900,7 +882,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -911,20 +893,20 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.33203125" customWidth="1"/>
+    <col min="1" max="1" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="155" customHeight="1">
+    <row r="2" spans="1:1" ht="155.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -932,7 +914,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
